--- a/assets/disciplinas/LOM3259.xlsx
+++ b/assets/disciplinas/LOM3259.xlsx
@@ -150,15 +150,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3231 -  Métodos Experimentais da Física IV  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3206 -  Eletrônica  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3215 -  Física do Estado Sólido  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3231 -  Métodos Experimentais da Física IV  (Indicação de Conjunto)
 </t>
   </si>
   <si>

--- a/assets/disciplinas/LOM3259.xlsx
+++ b/assets/disciplinas/LOM3259.xlsx
@@ -150,15 +150,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3231 -  Métodos Experimentais da Física IV  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOM3206 -  Eletrônica  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3215 -  Física do Estado Sólido  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3231 -  Métodos Experimentais da Física IV  (Indicação de Conjunto)
 </t>
   </si>
   <si>

--- a/assets/disciplinas/LOM3259.xlsx
+++ b/assets/disciplinas/LOM3259.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao aluno os conhecimentos básicos de materiais eletrônicos visando sua aplicação em dispositivos.</t>
+    <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,72 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>144651 - Antonio Fernando Sartori</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Materiais para eletrônica. Eletrônica e Física do Estado Sólido. Materiais e dispositivos semicondutores. Materiais e dispositivos optoeletrônicos. Materiais e dispositivos dielétricos e piezelétricos.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Materiais para aplicações eletrônicas: metais, cerâmicas, vidros e polímeros. Monocristais e filmes finos.
-Ondas e partículas na matéria. Elétrons em átomos e cristais. Estruturas de bandas de energia. Propriedades eletrônicas e espectroscópicas de materiais. 
-Materiais condutores, semicondutores e isolantes. Propriedades eletrônicas em semicondutores. Transporte elétrico. Dispositivos semicondutores. Junção pn. Contato metal-semicondutor e semicondutor-isolante. Dispositivos semicondutores: diodos e transistores bipolares e FET. 
-Materiais e dispositivos optoeletrônicos. LED, laser semicondutor, fotodetetores e células fotovoltaicas. 
-Tipos e propriedades dos materiais dielétricos. Materiais ferroelétricos e piezelétricos. Dispositivos baseados em materiais dielétricos e piezelétricos. Aplicações.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas, práticas, seminários e exercícios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média das notas de provas, relatórios e apresentações.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>REZENDE, S. M. Materiais e Dispositivos Eletrônicos, São Paulo: Livraria da Física, 2014.
-SWART, J. W. Semicondutores - Fundamentos, Técnicas e Aplicações, Campinas: Editora da Unicamp, 2008.
-YU, P. Y.; CARDONA, M. Fundamentals of Semiconductors: Physics and Materials Properties, Springer, 2005.
-KWOK, H. L. Electronic Materials, Boston: PWS Publishing, 1997.
-HORENSTEIN, M. N. Microeletrônica: Circuitos &amp; Dispositivos. Rio de Janeiro, Prentice Hall do Brasil, 1996.
-SCHMIDT, W. Materiais Elétricos, vol. I, Ed. Edgard Blücher, SP, 1998.
-SCHMIDT, W. Materiais Elétricos, vol. II, Ed. Edgard Blücher, SP, 1995.
-HIPPEL, A. R. Dielectric Materials and Applications, Artech House, 1995.
-CHOUDHARY, R. N. Dielectric Materials: Introduction, Research and Applications, Nova Science Pub., 2009.
-YANG, J. An Introduction to Theory of Piezoelectricity, Springer, 2004. 
-VIVES, A. A. Piezoelectric Transducer and Applications, Springer, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -519,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,47 +618,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -695,42 +666,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -738,52 +712,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1">
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3259.xlsx
+++ b/assets/disciplinas/LOM3259.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -122,21 +122,17 @@
   </si>
   <si>
     <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3206 -  Eletrônica  (Requisito)
-</t>
   </si>
   <si>
     <t xml:space="preserve">LOM3215 -  Física do Estado Sólido  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3231 -  Métodos Experimentais da Física IV  (Indicação de Conjunto)
+    <t xml:space="preserve">LOM3234 -  Óptica Física  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3234 -  Óptica Física  (Requisito)
+    <t xml:space="preserve">LOM3263 -  Eletrônica Fundamental e Aplicada  (Requisito)
 </t>
   </si>
 </sst>
@@ -493,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,14 +724,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOM3259.xlsx
+++ b/assets/disciplinas/LOM3259.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2016</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the student with the basic knowledge of electronic materials aiming their application in devices.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Materials for electronics. Electronics and Solid State Physics. Semiconductor materials and devices. Optoelectronic materials and devices. Dielectric and piezoelectric materials and devices.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Materials for electronic applications: metals, ceramics, glasses and polymers. Single crystals and thin films.Waves and particles in matter. Electrons in atoms and crystals. Energy band structures. Electronic and spectroscopic properties of materials.Conducting, semiconducting and insulating materials. Electronic properties in semiconductors. Electric transport. Semiconductor devices. pn junction Metal-semiconductor and semiconductor-insulator contact. Semiconductor devices: diodes and bipolar and FET transistors.Optoelectronic materials and devices. LED, semiconductor laser, photodetectors and photovoltaic cells.Types and properties of dielectric materials. Ferroelectric and piezoelectric materials. Devices based on dielectric and piezoelectric materials. Applications.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -608,15 +617,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -627,101 +642,113 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3259.xlsx
+++ b/assets/disciplinas/LOM3259.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,33 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar ao aluno os conhecimentos básicos de materiais eletrônicos visando sua aplicação em dispositivos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with the basic knowledge of electronic materials aiming their application in devices.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with the basic knowledge of electronic materials aiming their application in devices.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+  </si>
+  <si>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Materiais para eletrônica. Eletrônica e Física do Estado Sólido. Materiais e dispositivos semicondutores. Materiais e dispositivos optoeletrônicos. Materiais e dispositivos dielétricos e piezelétricos.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,7 +106,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+    <t>Materiais para aplicações eletrônicas: metais, cerâmicas, vidros e polímeros. Monocristais e filmes finos.Ondas e partículas na matéria. Elétrons em átomos e cristais. Estruturas de bandas de energia. Propriedades eletrônicas e espectroscópicas de materiais. Materiais condutores, semicondutores e isolantes. Propriedades eletrônicas em semicondutores. Transporte elétrico. Dispositivos semicondutores. Junção pn. Contato metal-semicondutor e semicondutor-isolante. Dispositivos semicondutores: diodos e transistores bipolares e FET. Materiais e dispositivos optoeletrônicos. LED, laser semicondutor, fotodetetores e células fotovoltaicas. Tipos e propriedades dos materiais dielétricos. Materiais ferroelétricos e piezelétricos. Dispositivos baseados em materiais dielétricos e piezelétricos. Aplicações.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -109,25 +121,35 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Aulas expositivas, práticas, seminários e exercícios.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, práticas, seminários e exercícios.</t>
+    <t>Média das notas de provas, relatórios e apresentações.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média das notas de provas, relatórios e apresentações.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>REZENDE, S. M. Materiais e Dispositivos Eletrônicos, São Paulo: Livraria da Física, 2014.
+SWART, J. W. Semicondutores - Fundamentos, Técnicas e Aplicações, Campinas: Editora da Unicamp, 2008.
+YU, P. Y.; CARDONA, M. Fundamentals of Semiconductors: Physics and Materials Properties, Springer, 2005.
+KWOK, H. L. Electronic Materials, Boston: PWS Publishing, 1997.
+HORENSTEIN, M. N. Microeletrônica: Circuitos &amp; Dispositivos. Rio de Janeiro, Prentice Hall do Brasil, 1996.
+SCHMIDT, W. Materiais Elétricos, vol. I, Ed. Edgard Blücher, SP, 1998.
+SCHMIDT, W. Materiais Elétricos, vol. II, Ed. Edgard Blücher, SP, 1995.
+HIPPEL, A. R. Dielectric Materials and Applications, Artech House, 1995.
+CHOUDHARY, R. N. Dielectric Materials: Introduction, Research and Applications, Nova Science Pub., 2009.
+YANG, J. An Introduction to Theory of Piezoelectricity, Springer, 2004. 
+VIVES, A. A. Piezoelectric Transducer and Applications, Springer, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -629,105 +651,105 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="60" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -735,20 +757,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
